--- a/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
+++ b/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/clinicalinvestv2/utils/read_file_util/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/汉典工作/clinicalinvestv2/utils/read_file_util/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3029,14 +3029,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>王丽丽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李芳芳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>13367845788</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3414,6 +3406,23 @@
   </si>
   <si>
     <t>有</t>
+  </si>
+  <si>
+    <t>李丽</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思芳</t>
+    <rPh sb="0" eb="1">
+      <t>zahng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -31291,8 +31300,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -31368,7 +31377,7 @@
         <v>728</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>881</v>
+        <v>984</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -31381,7 +31390,7 @@
         <v>723</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>882</v>
+        <v>985</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
@@ -31394,7 +31403,7 @@
         <v>724</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -31472,7 +31481,7 @@
         <v>765</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -31598,7 +31607,7 @@
         <v>451</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
@@ -31624,7 +31633,7 @@
         <v>650</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C28" s="88"/>
       <c r="D28" s="89"/>
@@ -31761,7 +31770,7 @@
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="122" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
@@ -31813,7 +31822,7 @@
         <v>454</v>
       </c>
       <c r="B49" s="119" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C49" s="84"/>
       <c r="D49" s="85"/>
@@ -31826,7 +31835,7 @@
         <v>455</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -31839,7 +31848,7 @@
         <v>456</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C51" s="86"/>
       <c r="D51" s="87"/>
@@ -32663,7 +32672,7 @@
         <v>735</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="94"/>
@@ -32816,7 +32825,7 @@
       </c>
       <c r="B136" s="34"/>
       <c r="E136" s="76" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -33125,12 +33134,12 @@
         <v>782</v>
       </c>
       <c r="B171" s="123" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C171" s="39"/>
       <c r="D171" s="97"/>
       <c r="E171" s="76" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -33138,12 +33147,12 @@
         <v>784</v>
       </c>
       <c r="B172" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C172" s="39"/>
       <c r="D172" s="97"/>
       <c r="E172" s="76" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -33151,12 +33160,12 @@
         <v>785</v>
       </c>
       <c r="B173" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C173" s="39"/>
       <c r="D173" s="97"/>
       <c r="E173" s="76" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -33164,12 +33173,12 @@
         <v>786</v>
       </c>
       <c r="B174" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C174" s="39"/>
       <c r="D174" s="97"/>
       <c r="E174" s="76" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -33177,12 +33186,12 @@
         <v>787</v>
       </c>
       <c r="B175" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C175" s="39"/>
       <c r="D175" s="97"/>
       <c r="E175" s="76" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -33190,12 +33199,12 @@
         <v>788</v>
       </c>
       <c r="B176" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C176" s="39"/>
       <c r="D176" s="97"/>
       <c r="E176" s="76" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -33203,12 +33212,12 @@
         <v>789</v>
       </c>
       <c r="B177" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C177" s="39"/>
       <c r="D177" s="97"/>
       <c r="E177" s="76" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -33216,12 +33225,12 @@
         <v>790</v>
       </c>
       <c r="B178" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C178" s="39"/>
       <c r="D178" s="97"/>
       <c r="E178" s="76" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -33229,12 +33238,12 @@
         <v>791</v>
       </c>
       <c r="B179" s="124" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C179" s="39"/>
       <c r="D179" s="97"/>
       <c r="E179" s="76" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33245,7 +33254,7 @@
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="76" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33425,15 +33434,15 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="49" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B205" s="125" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C205" s="100"/>
       <c r="D205" s="101"/>
       <c r="E205" s="76" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -45035,7 +45044,7 @@
         <v>645</v>
       </c>
       <c r="Y1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -45106,10 +45115,10 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Z2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AA2" t="b">
         <v>1</v>
@@ -45168,10 +45177,10 @@
         <v>567</v>
       </c>
       <c r="Y3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Z3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
@@ -45227,10 +45236,10 @@
         <v>582</v>
       </c>
       <c r="Y4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="Z4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="b">
         <v>1</v>
@@ -45292,10 +45301,10 @@
         <v>597</v>
       </c>
       <c r="Y5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="Z5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AA5" t="b">
         <v>1</v>
@@ -45473,10 +45482,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="J16" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K16" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -45861,7 +45870,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="66" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>445</v>
@@ -45884,7 +45893,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="66" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>432</v>
@@ -45947,7 +45956,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -45982,7 +45991,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>691</v>
@@ -46015,7 +46024,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>732</v>
@@ -46189,12 +46198,12 @@
         <v>710</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="66" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -46229,7 +46238,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="73" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B94" s="66" t="s">
         <v>712</v>
@@ -46247,7 +46256,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="66" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B98" s="66" t="s">
         <v>719</v>
@@ -46270,7 +46279,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="66" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B104" s="66" t="s">
         <v>715</v>
@@ -46504,290 +46513,290 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="66" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B161" s="66" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="66" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" s="66" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="66" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="66" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" s="66" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" s="66" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="66" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="66" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" s="66" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" s="66" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="66" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="66" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" s="66" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" s="66" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" s="66" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="66" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="66" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B179" s="66" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="66" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B181" s="66" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="66" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="66" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B184" s="66" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B185" s="66" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B186" s="66" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B187" s="66" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B188" s="66" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B189" s="66" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B190" s="66" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B191" s="66" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B192" s="66" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B193" s="66" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B194" s="66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B195" s="66" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B196" s="66" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B197" s="66" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="66" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B199" s="66" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" s="66" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B201" s="66" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B202" s="66" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B203" s="66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B204" s="66" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B205" s="66" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B206" s="66" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B207" s="66" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B208" s="66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B209" s="66" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B210" s="66" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B211" s="66" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B212" s="66" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B213" s="66" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B214" s="66" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B215" s="66" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B216" s="66" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B217" s="66" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
+++ b/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -4706,7 +4706,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp274.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4722,7 +4722,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp278.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp279.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp280.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$C$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$C$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp281.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4754,7 +4754,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp285.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$F$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$F$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp286.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4766,11 +4766,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp288.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$F$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$F$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp289.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$F$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$F$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4778,7 +4778,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp290.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="一般情况!$F$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="一般情况!$F$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp291.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31300,7 +31300,7 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -43019,7 +43019,7 @@
         <v>656</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>657</v>
@@ -43082,7 +43082,7 @@
         <v>670</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -43093,7 +43093,7 @@
         <v>672</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>673</v>
@@ -43127,7 +43127,7 @@
         <v>679</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>680</v>
@@ -43136,7 +43136,7 @@
         <v>681</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -43147,7 +43147,7 @@
         <v>683</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -43158,7 +43158,7 @@
         <v>685</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
+++ b/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -3029,10 +3029,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13367845788</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>门诊</t>
   </si>
   <si>
@@ -3325,9 +3321,6 @@
     <t>accessory_penqiangchaosheng</t>
   </si>
   <si>
-    <t>accessory_jichutiwen</t>
-  </si>
-  <si>
     <t>accessory_jisushuiping</t>
   </si>
   <si>
@@ -3415,13 +3408,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张思芳</t>
+    <t>赵思芳</t>
     <rPh sb="0" eb="1">
-      <t>zahng</t>
+      <t>zhao</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>si</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13367845788</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccessory_jichutiwen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5593,8 +5594,8 @@
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -6267,8 +6268,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1892300</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8031,8 +8032,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1460500</xdr:colOff>
-          <xdr:row>91</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11307,8 +11308,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1701800</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14751,8 +14752,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>88</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15339,8 +15340,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15843,8 +15844,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>977900</xdr:colOff>
-          <xdr:row>91</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15927,8 +15928,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1003300</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16179,8 +16180,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1155700</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18699,8 +18700,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2527300</xdr:colOff>
-          <xdr:row>72</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21891,8 +21892,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1993900</xdr:colOff>
-          <xdr:row>125</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>126</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25081,8 +25082,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>185</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -31300,8 +31301,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -31377,7 +31378,7 @@
         <v>728</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -31390,7 +31391,7 @@
         <v>723</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
@@ -31403,7 +31404,7 @@
         <v>724</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>881</v>
+        <v>984</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -31429,7 +31430,7 @@
         <v>729</v>
       </c>
       <c r="B10" s="116">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -31481,7 +31482,7 @@
         <v>765</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -31607,7 +31608,7 @@
         <v>451</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
@@ -31633,7 +31634,7 @@
         <v>650</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C28" s="88"/>
       <c r="D28" s="89"/>
@@ -31770,7 +31771,7 @@
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="122" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
@@ -31822,7 +31823,7 @@
         <v>454</v>
       </c>
       <c r="B49" s="119" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C49" s="84"/>
       <c r="D49" s="85"/>
@@ -31835,7 +31836,7 @@
         <v>455</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -31848,7 +31849,7 @@
         <v>456</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C51" s="86"/>
       <c r="D51" s="87"/>
@@ -32672,7 +32673,7 @@
         <v>735</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="94"/>
@@ -32825,7 +32826,7 @@
       </c>
       <c r="B136" s="34"/>
       <c r="E136" s="76" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -33134,12 +33135,12 @@
         <v>782</v>
       </c>
       <c r="B171" s="123" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C171" s="39"/>
       <c r="D171" s="97"/>
       <c r="E171" s="76" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -33147,12 +33148,12 @@
         <v>784</v>
       </c>
       <c r="B172" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C172" s="39"/>
       <c r="D172" s="97"/>
       <c r="E172" s="76" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -33160,12 +33161,12 @@
         <v>785</v>
       </c>
       <c r="B173" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C173" s="39"/>
       <c r="D173" s="97"/>
       <c r="E173" s="76" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -33173,12 +33174,12 @@
         <v>786</v>
       </c>
       <c r="B174" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C174" s="39"/>
       <c r="D174" s="97"/>
       <c r="E174" s="76" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -33186,12 +33187,12 @@
         <v>787</v>
       </c>
       <c r="B175" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C175" s="39"/>
       <c r="D175" s="97"/>
       <c r="E175" s="76" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -33199,12 +33200,12 @@
         <v>788</v>
       </c>
       <c r="B176" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C176" s="39"/>
       <c r="D176" s="97"/>
       <c r="E176" s="76" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -33212,12 +33213,12 @@
         <v>789</v>
       </c>
       <c r="B177" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C177" s="39"/>
       <c r="D177" s="97"/>
       <c r="E177" s="76" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -33225,12 +33226,12 @@
         <v>790</v>
       </c>
       <c r="B178" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C178" s="39"/>
       <c r="D178" s="97"/>
       <c r="E178" s="76" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -33238,12 +33239,12 @@
         <v>791</v>
       </c>
       <c r="B179" s="124" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C179" s="39"/>
       <c r="D179" s="97"/>
       <c r="E179" s="76" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33254,7 +33255,7 @@
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="76" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33434,15 +33435,15 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B205" s="125" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C205" s="100"/>
       <c r="D205" s="101"/>
       <c r="E205" s="76" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -45044,7 +45045,7 @@
         <v>645</v>
       </c>
       <c r="Y1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -45115,10 +45116,10 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="Z2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AA2" t="b">
         <v>1</v>
@@ -45177,10 +45178,10 @@
         <v>567</v>
       </c>
       <c r="Y3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Z3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
@@ -45236,10 +45237,10 @@
         <v>582</v>
       </c>
       <c r="Y4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Z4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AA4" t="b">
         <v>1</v>
@@ -45301,10 +45302,10 @@
         <v>597</v>
       </c>
       <c r="Y5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="Z5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="b">
         <v>1</v>
@@ -45482,10 +45483,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="J16" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="K16" t="s">
         <v>948</v>
-      </c>
-      <c r="K16" t="s">
-        <v>949</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -45870,7 +45871,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="66" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>445</v>
@@ -45893,7 +45894,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="66" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>432</v>
@@ -45956,7 +45957,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -45991,7 +45992,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>691</v>
@@ -46024,7 +46025,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>732</v>
@@ -46198,12 +46199,12 @@
         <v>710</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="66" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -46238,7 +46239,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="73" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B94" s="66" t="s">
         <v>712</v>
@@ -46256,7 +46257,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="66" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B98" s="66" t="s">
         <v>719</v>
@@ -46279,7 +46280,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="66" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B104" s="66" t="s">
         <v>715</v>
@@ -46513,290 +46514,290 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="66" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B161" s="66" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="66" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" s="66" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="66" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="66" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" s="66" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" s="66" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="66" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="66" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" s="66" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" s="66" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="66" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="66" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" s="66" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" s="66" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" s="66" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="66" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="66" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B179" s="66" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="66" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B181" s="66" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="66" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="66" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B184" s="66" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B185" s="66" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B186" s="66" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B187" s="66" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B188" s="66" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B189" s="66" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B190" s="66" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B191" s="66" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B192" s="66" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B193" s="66" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B194" s="66" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B195" s="66" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B196" s="66" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B197" s="66" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="66" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B199" s="66" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" s="66" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B201" s="66" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B202" s="66" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B203" s="66" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B204" s="66" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B205" s="66" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B206" s="66" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B207" s="66" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B208" s="66" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B209" s="66" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B210" s="66" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B211" s="66" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B212" s="66" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B213" s="66" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B214" s="66" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B215" s="66" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B216" s="66" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B217" s="66" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>

--- a/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
+++ b/utils/read_file_util/07排卵障碍性异常子宫出血问卷_20181126.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="989">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3021,18 +3021,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                    北京</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>汉典</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>门诊</t>
-  </si>
-  <si>
-    <t>已婚同居</t>
   </si>
   <si>
     <t>汉族</t>
@@ -3422,7 +3415,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ccessory_jichutiwen</t>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>bei'jing</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 学生  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已婚同居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大专  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-7天    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory_jichutiwen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5594,8 +5610,8 @@
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -6268,8 +6284,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1892300</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8032,8 +8048,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1460500</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11308,8 +11324,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1701800</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14752,8 +14768,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>89</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15340,8 +15356,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15844,8 +15860,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>977900</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15928,8 +15944,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1003300</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16180,8 +16196,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1155700</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18700,8 +18716,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2527300</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21892,8 +21908,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1993900</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25082,8 +25098,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>185</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -31301,8 +31317,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -31365,7 +31381,7 @@
         <v>727</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
@@ -31378,7 +31394,7 @@
         <v>728</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -31391,7 +31407,7 @@
         <v>723</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
@@ -31404,7 +31420,7 @@
         <v>724</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -31482,7 +31498,7 @@
         <v>765</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -31495,7 +31511,7 @@
         <v>444</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>438</v>
+        <v>984</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
@@ -31595,7 +31611,7 @@
         <v>768</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>879</v>
+        <v>983</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="32"/>
@@ -31608,7 +31624,7 @@
         <v>451</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
@@ -31621,7 +31637,7 @@
         <v>452</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>802</v>
+        <v>986</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
@@ -31634,7 +31650,7 @@
         <v>650</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>882</v>
+        <v>985</v>
       </c>
       <c r="C28" s="88"/>
       <c r="D28" s="89"/>
@@ -31771,7 +31787,7 @@
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="122" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
@@ -31784,7 +31800,7 @@
         <v>703</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>699</v>
+        <v>987</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="34"/>
@@ -31823,7 +31839,7 @@
         <v>454</v>
       </c>
       <c r="B49" s="119" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C49" s="84"/>
       <c r="D49" s="85"/>
@@ -31836,7 +31852,7 @@
         <v>455</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -31849,7 +31865,7 @@
         <v>456</v>
       </c>
       <c r="B51" s="111" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C51" s="86"/>
       <c r="D51" s="87"/>
@@ -32673,7 +32689,7 @@
         <v>735</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="94"/>
@@ -32826,7 +32842,7 @@
       </c>
       <c r="B136" s="34"/>
       <c r="E136" s="76" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -33135,12 +33151,12 @@
         <v>782</v>
       </c>
       <c r="B171" s="123" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C171" s="39"/>
       <c r="D171" s="97"/>
       <c r="E171" s="76" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -33148,12 +33164,12 @@
         <v>784</v>
       </c>
       <c r="B172" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C172" s="39"/>
       <c r="D172" s="97"/>
       <c r="E172" s="76" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -33161,12 +33177,12 @@
         <v>785</v>
       </c>
       <c r="B173" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C173" s="39"/>
       <c r="D173" s="97"/>
       <c r="E173" s="76" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -33174,12 +33190,12 @@
         <v>786</v>
       </c>
       <c r="B174" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C174" s="39"/>
       <c r="D174" s="97"/>
       <c r="E174" s="76" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -33187,12 +33203,12 @@
         <v>787</v>
       </c>
       <c r="B175" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C175" s="39"/>
       <c r="D175" s="97"/>
       <c r="E175" s="76" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -33200,12 +33216,12 @@
         <v>788</v>
       </c>
       <c r="B176" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C176" s="39"/>
       <c r="D176" s="97"/>
       <c r="E176" s="76" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -33213,12 +33229,12 @@
         <v>789</v>
       </c>
       <c r="B177" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C177" s="39"/>
       <c r="D177" s="97"/>
       <c r="E177" s="76" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -33226,12 +33242,12 @@
         <v>790</v>
       </c>
       <c r="B178" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C178" s="39"/>
       <c r="D178" s="97"/>
       <c r="E178" s="76" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -33239,12 +33255,12 @@
         <v>791</v>
       </c>
       <c r="B179" s="124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C179" s="39"/>
       <c r="D179" s="97"/>
       <c r="E179" s="76" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33255,7 +33271,7 @@
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="76" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -33435,15 +33451,15 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B205" s="125" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C205" s="100"/>
       <c r="D205" s="101"/>
       <c r="E205" s="76" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -45045,7 +45061,7 @@
         <v>645</v>
       </c>
       <c r="Y1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -45116,10 +45132,10 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="Z2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AA2" t="b">
         <v>1</v>
@@ -45178,10 +45194,10 @@
         <v>567</v>
       </c>
       <c r="Y3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="Z3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
@@ -45237,10 +45253,10 @@
         <v>582</v>
       </c>
       <c r="Y4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Z4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AA4" t="b">
         <v>1</v>
@@ -45302,10 +45318,10 @@
         <v>597</v>
       </c>
       <c r="Y5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Z5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AA5" t="b">
         <v>1</v>
@@ -45483,10 +45499,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="J16" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -45871,7 +45887,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="66" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>445</v>
@@ -45894,7 +45910,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="66" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>432</v>
@@ -45957,7 +45973,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="66" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -45992,7 +46008,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="66" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>691</v>
@@ -46025,7 +46041,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="66" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>732</v>
@@ -46199,12 +46215,12 @@
         <v>710</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="66" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -46239,7 +46255,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="73" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B94" s="66" t="s">
         <v>712</v>
@@ -46257,7 +46273,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="66" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B98" s="66" t="s">
         <v>719</v>
@@ -46280,7 +46296,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="66" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B104" s="66" t="s">
         <v>715</v>
@@ -46514,290 +46530,290 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="66" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B161" s="66" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="66" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" s="66" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="66" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="66" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" s="66" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" s="66" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="66" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="66" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" s="66" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B171" s="66" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" s="66" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="66" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" s="66" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" s="66" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" s="66" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="66" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="66" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B179" s="66" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="66" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B181" s="66" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="66" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="66" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B184" s="66" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B185" s="66" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B186" s="66" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B187" s="66" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B188" s="66" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B189" s="66" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B190" s="66" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B191" s="66" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B192" s="66" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B193" s="66" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B194" s="66" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B195" s="66" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B196" s="66" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B197" s="66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="66" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B199" s="66" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" s="66" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B201" s="66" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B202" s="66" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B203" s="66" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B204" s="66" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B205" s="66" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B206" s="66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B207" s="66" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B208" s="66" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B209" s="66" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B210" s="66" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B211" s="66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B212" s="66" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B213" s="66" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B214" s="66" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B215" s="66" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B216" s="66" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B217" s="66" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
